--- a/out_in3.xlsx
+++ b/out_in3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,7 +722,7 @@
         <v>0.0382</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9086759090423584</v>
+        <v>0.9086757302284241</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,2196 @@
         <v>0.0249</v>
       </c>
       <c r="C27" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B28" t="n">
+        <v>85.7971</v>
+      </c>
+      <c r="C28" t="n">
+        <v>86.58736419677734</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="B29" t="n">
+        <v>62.9338</v>
+      </c>
+      <c r="C29" t="n">
+        <v>78.01347351074219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B30" t="n">
+        <v>47.1308</v>
+      </c>
+      <c r="C30" t="n">
+        <v>69.72370147705078</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="B31" t="n">
+        <v>35.2062</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63.36597061157227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B32" t="n">
+        <v>26.5561</v>
+      </c>
+      <c r="C32" t="n">
+        <v>57.02123260498047</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20.1195</v>
+      </c>
+      <c r="C33" t="n">
+        <v>50.67647552490234</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15.3113</v>
+      </c>
+      <c r="C34" t="n">
+        <v>44.33172225952148</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B35" t="n">
+        <v>11.6226</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37.98696136474609</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.902799999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>31.64220428466797</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6.9226</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25.30554389953613</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B38" t="n">
+        <v>30.9086</v>
+      </c>
+      <c r="C38" t="n">
+        <v>60.1936149597168</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B39" t="n">
+        <v>17.8804</v>
+      </c>
+      <c r="C39" t="n">
+        <v>47.50409317016602</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.4461</v>
+      </c>
+      <c r="C40" t="n">
+        <v>34.81459045410156</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6.3189</v>
+      </c>
+      <c r="C41" t="n">
+        <v>22.19366645812988</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12.59107875823975</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.3789</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.379427909851074</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.4583</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.037919282913208</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8984</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5522</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.2179</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1354</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0849</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0519</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0207</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B54" t="n">
+        <v>63.6431</v>
+      </c>
+      <c r="C54" t="n">
+        <v>65.22576904296875</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="B55" t="n">
+        <v>47.8632</v>
+      </c>
+      <c r="C55" t="n">
+        <v>58.88100433349609</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B56" t="n">
+        <v>35.9867</v>
+      </c>
+      <c r="C56" t="n">
+        <v>52.53625869750977</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="B57" t="n">
+        <v>26.9349</v>
+      </c>
+      <c r="C57" t="n">
+        <v>46.19150161743164</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B58" t="n">
+        <v>20.3686</v>
+      </c>
+      <c r="C58" t="n">
+        <v>39.84674453735352</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B59" t="n">
+        <v>15.3746</v>
+      </c>
+      <c r="C59" t="n">
+        <v>33.50198745727539</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11.8022</v>
+      </c>
+      <c r="C60" t="n">
+        <v>27.15723037719727</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8.9701</v>
+      </c>
+      <c r="C61" t="n">
+        <v>21.15141296386719</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6.8027</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16.37742614746094</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5.3752</v>
+      </c>
+      <c r="C63" t="n">
+        <v>11.60343742370605</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B64" t="n">
+        <v>23.6424</v>
+      </c>
+      <c r="C64" t="n">
+        <v>43.01911544799805</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B65" t="n">
+        <v>13.6904</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30.32960319519043</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8.016999999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>18.76442909240723</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.8123</v>
+      </c>
+      <c r="C67" t="n">
+        <v>9.344470977783203</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.9518</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.72100043296814</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.0893</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.6745</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4182</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1636</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0998</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0636</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0411</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0251</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B80" t="n">
+        <v>44.8925</v>
+      </c>
+      <c r="C80" t="n">
+        <v>47.51456832885742</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="B81" t="n">
+        <v>33.2276</v>
+      </c>
+      <c r="C81" t="n">
+        <v>41.16981506347656</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B82" t="n">
+        <v>24.8745</v>
+      </c>
+      <c r="C82" t="n">
+        <v>34.8250617980957</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="B83" t="n">
+        <v>18.5075</v>
+      </c>
+      <c r="C83" t="n">
+        <v>28.48030281066895</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B84" t="n">
+        <v>14.002</v>
+      </c>
+      <c r="C84" t="n">
+        <v>22.20227432250977</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B85" t="n">
+        <v>10.483</v>
+      </c>
+      <c r="C85" t="n">
+        <v>17.37295150756836</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.0527</v>
+      </c>
+      <c r="C86" t="n">
+        <v>12.59896183013916</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.0639</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8.068461418151855</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.6081</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.384361743927002</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.205705881118774</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B90" t="n">
+        <v>16.2119</v>
+      </c>
+      <c r="C90" t="n">
+        <v>25.3159236907959</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B91" t="n">
+        <v>9.301</v>
+      </c>
+      <c r="C91" t="n">
+        <v>14.98595237731934</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.3757</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5.96109676361084</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.2273</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.431443333625793</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.9587</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.1819</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="C96" t="n">
         <v>0.9086759090423584</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.4347</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9086759090423584</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.2666</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1624</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.0367</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B106" t="n">
+        <v>30.7109</v>
+      </c>
+      <c r="C106" t="n">
+        <v>34.09699630737305</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="B107" t="n">
+        <v>22.6202</v>
+      </c>
+      <c r="C107" t="n">
+        <v>27.75225257873535</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B108" t="n">
+        <v>16.7141</v>
+      </c>
+      <c r="C108" t="n">
+        <v>21.6041202545166</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="B109" t="n">
+        <v>12.3341</v>
+      </c>
+      <c r="C109" t="n">
+        <v>16.82513809204102</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9.2194</v>
+      </c>
+      <c r="C110" t="n">
+        <v>12.05114650726318</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.9602</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.566106796264648</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5.2497</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4.041278839111328</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3.9667</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.004626512527466</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.9914</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.000105738639832</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.3081</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B116" t="n">
+        <v>10.6699</v>
+      </c>
+      <c r="C116" t="n">
+        <v>14.43814563751221</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.0932</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.548118114471436</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.5139</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.305028796195984</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.0809</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.2379</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7518</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.2707</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1679</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.06270000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9086759090423584</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.0142</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9086759090423584</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B132" t="n">
+        <v>21.0769</v>
+      </c>
+      <c r="C132" t="n">
+        <v>23.92116165161133</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="B133" t="n">
+        <v>14.9821</v>
+      </c>
+      <c r="C133" t="n">
+        <v>18.7003173828125</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B134" t="n">
+        <v>10.8014</v>
+      </c>
+      <c r="C134" t="n">
+        <v>13.92632293701172</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7.9493</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.285682678222656</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.9289</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.215668201446533</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.3899</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.696134567260742</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3.3012</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.214051127433777</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.4876</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.8333</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.843</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7.102237224578857</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.8193</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.829437375068665</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.1613</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.2549</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4431</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.2645</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.1555</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.0892</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.0558</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.0331</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B157" t="n">
+        <v>13.6487</v>
+      </c>
+      <c r="C157" t="n">
+        <v>18.02257919311523</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="B158" t="n">
+        <v>9.570399999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>13.2485933303833</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.8169</v>
+      </c>
+      <c r="C159" t="n">
+        <v>8.664186477661133</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.9407</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.791213989257812</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.6304</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.444160461425781</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2.6536</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.101202845573425</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.9719</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.4582</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.1105</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.8260999999999999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.1774</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3.377989053726196</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2.2893</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.9483882188796997</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.2972</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7386</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.4284</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.2495</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.1455</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.0856</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.0107</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B182" t="n">
+        <v>7.1957</v>
+      </c>
+      <c r="C182" t="n">
+        <v>14.18618202209473</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.0949</v>
+      </c>
+      <c r="C183" t="n">
+        <v>9.523978233337402</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3.7089</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.378410339355469</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2.7095</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.796931743621826</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2.0084</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.260241270065308</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.4928</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.0856</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8038</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.6045</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.4282</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.2688</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.912140965461731</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.2584</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.9086759090423584</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7049</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.2256</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.1363</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.0745</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.0391</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.0237</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.5882</v>
+      </c>
+      <c r="C206" t="n">
+        <v>11.76318740844727</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2.581</v>
+      </c>
+      <c r="C207" t="n">
+        <v>7.30203914642334</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.860934019088745</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.3707</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.899053692817688</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.9922</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.9852913618087769</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.7265</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.5536</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.3943</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.2963</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.2103</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1.1267</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.253843307495117</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.6238</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.1878</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1043</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.0591</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.9086757302284241</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.0094</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.9086759090423584</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.9086759090423584</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.9086757898330688</v>
       </c>
     </row>
   </sheetData>

--- a/out_in3.xlsx
+++ b/out_in3.xlsx
@@ -458,7 +458,7 @@
         <v>100.241</v>
       </c>
       <c r="C2" t="n">
-        <v>103.6310958862305</v>
+        <v>106.4351348876953</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>75.7467</v>
       </c>
       <c r="C3" t="n">
-        <v>95.05721282958984</v>
+        <v>91.87453460693359</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>57.2839</v>
       </c>
       <c r="C4" t="n">
-        <v>86.48331451416016</v>
+        <v>71.35710906982422</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>43.3303</v>
       </c>
       <c r="C5" t="n">
-        <v>77.90941619873047</v>
+        <v>47.71546936035156</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>32.9394</v>
       </c>
       <c r="C6" t="n">
-        <v>69.64295196533203</v>
+        <v>34.64558410644531</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>24.9797</v>
       </c>
       <c r="C7" t="n">
-        <v>63.28899383544922</v>
+        <v>25.66920471191406</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>19.173</v>
       </c>
       <c r="C8" t="n">
-        <v>56.94423294067383</v>
+        <v>19.13224792480469</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>14.5262</v>
       </c>
       <c r="C9" t="n">
-        <v>50.59946441650391</v>
+        <v>15.01753997802734</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>11.2169</v>
       </c>
       <c r="C10" t="n">
-        <v>44.25471496582031</v>
+        <v>10.75485038757324</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>8.749700000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>37.90995788574219</v>
+        <v>8.672069549560547</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>38.2614</v>
       </c>
       <c r="C12" t="n">
-        <v>73.62247467041016</v>
+        <v>40.24990463256836</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>22.2869</v>
       </c>
       <c r="C13" t="n">
-        <v>60.11660003662109</v>
+        <v>21.94100952148438</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>13.0525</v>
       </c>
       <c r="C14" t="n">
-        <v>47.42710113525391</v>
+        <v>13.19248580932617</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>7.9042</v>
       </c>
       <c r="C15" t="n">
-        <v>34.73757934570312</v>
+        <v>7.312308788299561</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>4.9037</v>
       </c>
       <c r="C16" t="n">
-        <v>22.13039970397949</v>
+        <v>4.424531936645508</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>3.0108</v>
       </c>
       <c r="C17" t="n">
-        <v>12.53314304351807</v>
+        <v>2.585846424102783</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>1.8705</v>
       </c>
       <c r="C18" t="n">
-        <v>4.343142509460449</v>
+        <v>1.395172834396362</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>1.122</v>
       </c>
       <c r="C19" t="n">
-        <v>1.032633900642395</v>
+        <v>0.7411615252494812</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.7141999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.2444855570793152</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>0.4393</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.06151449680328369</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.2737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.348422646522522</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.1708</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.6159201860427856</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.1086</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.8429359197616577</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.06419999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.288342356681824</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.0382</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.216073870658875</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.0249</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.262077212333679</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>85.7971</v>
       </c>
       <c r="C28" t="n">
-        <v>86.58736419677734</v>
+        <v>98.95644378662109</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>62.9338</v>
       </c>
       <c r="C29" t="n">
-        <v>78.01347351074219</v>
+        <v>81.01988983154297</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>47.1308</v>
       </c>
       <c r="C30" t="n">
-        <v>69.72370147705078</v>
+        <v>56.64762496948242</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>35.2062</v>
       </c>
       <c r="C31" t="n">
-        <v>63.36597061157227</v>
+        <v>40.16185760498047</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>26.5561</v>
       </c>
       <c r="C32" t="n">
-        <v>57.02123260498047</v>
+        <v>29.34251403808594</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>20.1195</v>
       </c>
       <c r="C33" t="n">
-        <v>50.67647552490234</v>
+        <v>20.54309463500977</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>15.3113</v>
       </c>
       <c r="C34" t="n">
-        <v>44.33172225952148</v>
+        <v>15.18014335632324</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>11.6226</v>
       </c>
       <c r="C35" t="n">
-        <v>37.98696136474609</v>
+        <v>11.7577075958252</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>8.902799999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>31.64220428466797</v>
+        <v>8.512081146240234</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>6.9226</v>
       </c>
       <c r="C37" t="n">
-        <v>25.30554389953613</v>
+        <v>7.236655712127686</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>30.9086</v>
       </c>
       <c r="C38" t="n">
-        <v>60.1936149597168</v>
+        <v>34.62303924560547</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>17.8804</v>
       </c>
       <c r="C39" t="n">
-        <v>47.50409317016602</v>
+        <v>17.62771987915039</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>10.4461</v>
       </c>
       <c r="C40" t="n">
-        <v>34.81459045410156</v>
+        <v>9.63478946685791</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>6.3189</v>
       </c>
       <c r="C41" t="n">
-        <v>22.19366645812988</v>
+        <v>6.055233955383301</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>3.862</v>
       </c>
       <c r="C42" t="n">
-        <v>12.59107875823975</v>
+        <v>3.263515472412109</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>2.3789</v>
       </c>
       <c r="C43" t="n">
-        <v>4.379427909851074</v>
+        <v>1.920784711837769</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>1.4583</v>
       </c>
       <c r="C44" t="n">
-        <v>1.037919282913208</v>
+        <v>0.7844756841659546</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0.8984</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.2631905078887939</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0.5522</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.06636631488800049</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0.3429</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.3751903772354126</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0.2179</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.7153600454330444</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0.1354</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.9819527864456177</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>0.0849</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.540353655815125</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0.0519</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.628582835197449</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0.0325</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.673307299613953</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0.0207</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.73816978931427</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>63.6431</v>
       </c>
       <c r="C54" t="n">
-        <v>65.22576904296875</v>
+        <v>79.89434051513672</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>47.8632</v>
       </c>
       <c r="C55" t="n">
-        <v>58.88100433349609</v>
+        <v>57.85497283935547</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>35.9867</v>
       </c>
       <c r="C56" t="n">
-        <v>52.53625869750977</v>
+        <v>40.64423751831055</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>26.9349</v>
       </c>
       <c r="C57" t="n">
-        <v>46.19150161743164</v>
+        <v>29.18595123291016</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>20.3686</v>
       </c>
       <c r="C58" t="n">
-        <v>39.84674453735352</v>
+        <v>21.81490325927734</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>15.3746</v>
       </c>
       <c r="C59" t="n">
-        <v>33.50198745727539</v>
+        <v>15.95168590545654</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>11.8022</v>
       </c>
       <c r="C60" t="n">
-        <v>27.15723037719727</v>
+        <v>11.60183906555176</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>8.9701</v>
       </c>
       <c r="C61" t="n">
-        <v>21.15141296386719</v>
+        <v>8.405691146850586</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>6.8027</v>
       </c>
       <c r="C62" t="n">
-        <v>16.37742614746094</v>
+        <v>6.941476345062256</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>5.3752</v>
       </c>
       <c r="C63" t="n">
-        <v>11.60343742370605</v>
+        <v>4.490247249603271</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>23.6424</v>
       </c>
       <c r="C64" t="n">
-        <v>43.01911544799805</v>
+        <v>25.21393203735352</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>13.6904</v>
       </c>
       <c r="C65" t="n">
-        <v>30.32960319519043</v>
+        <v>14.03986549377441</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>8.016999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>18.76442909240723</v>
+        <v>7.678377628326416</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>4.8123</v>
       </c>
       <c r="C67" t="n">
-        <v>9.344470977783203</v>
+        <v>3.713477611541748</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>2.9518</v>
       </c>
       <c r="C68" t="n">
-        <v>2.72100043296814</v>
+        <v>2.017495632171631</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>1.804</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.9158527851104736</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>1.0893</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.006132245063781738</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0.6745</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.3268574476242065</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0.4182</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.6161888837814331</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0.26</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.9059683084487915</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0.1636</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.485726952552795</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0.0998</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.589456915855408</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0.0636</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.542734265327454</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0.0411</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.591437458992004</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0.0251</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.63789689540863</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0.0156</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.565561652183533</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>44.8925</v>
       </c>
       <c r="C80" t="n">
-        <v>47.51456832885742</v>
+        <v>53.09272766113281</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>33.2276</v>
       </c>
       <c r="C81" t="n">
-        <v>41.16981506347656</v>
+        <v>38.80979919433594</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>24.8745</v>
       </c>
       <c r="C82" t="n">
-        <v>34.8250617980957</v>
+        <v>27.32913398742676</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>18.5075</v>
       </c>
       <c r="C83" t="n">
-        <v>28.48030281066895</v>
+        <v>20.21491241455078</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>14.002</v>
       </c>
       <c r="C84" t="n">
-        <v>22.20227432250977</v>
+        <v>13.48225593566895</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>10.483</v>
       </c>
       <c r="C85" t="n">
-        <v>17.37295150756836</v>
+        <v>9.705204010009766</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>8.0527</v>
       </c>
       <c r="C86" t="n">
-        <v>12.59896183013916</v>
+        <v>8.145662307739258</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>6.0639</v>
       </c>
       <c r="C87" t="n">
-        <v>8.068461418151855</v>
+        <v>5.472902297973633</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>4.6081</v>
       </c>
       <c r="C88" t="n">
-        <v>4.384361743927002</v>
+        <v>4.212754249572754</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>3.596</v>
       </c>
       <c r="C89" t="n">
-        <v>2.205705881118774</v>
+        <v>2.733550071716309</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>16.2119</v>
       </c>
       <c r="C90" t="n">
-        <v>25.3159236907959</v>
+        <v>16.39350700378418</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>9.301</v>
       </c>
       <c r="C91" t="n">
-        <v>14.98595237731934</v>
+        <v>9.611371040344238</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>5.3757</v>
       </c>
       <c r="C92" t="n">
-        <v>5.96109676361084</v>
+        <v>4.746210098266602</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>3.2273</v>
       </c>
       <c r="C93" t="n">
-        <v>1.431443333625793</v>
+        <v>2.464976787567139</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>1.9587</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9086757302284241</v>
+        <v>1.313455939292908</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>1.1819</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.1790331602096558</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0.723</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9086759090423584</v>
+        <v>-0.6706205606460571</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0.4347</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9086759090423584</v>
+        <v>-0.8843616247177124</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0.2666</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.09173572063446</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0.1624</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.23932421207428</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0.1045</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.551923155784607</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0.0667</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.639428973197937</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0.0367</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.648181796073914</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0.0246</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.605118870735168</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0.0144</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.640136361122131</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.83118736743927</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>30.7109</v>
       </c>
       <c r="C106" t="n">
-        <v>34.09699630737305</v>
+        <v>33.61832427978516</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>22.6202</v>
       </c>
       <c r="C107" t="n">
-        <v>27.75225257873535</v>
+        <v>24.61474990844727</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>16.7141</v>
       </c>
       <c r="C108" t="n">
-        <v>21.6041202545166</v>
+        <v>17.56715393066406</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>12.3341</v>
       </c>
       <c r="C109" t="n">
-        <v>16.82513809204102</v>
+        <v>11.35662937164307</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>9.2194</v>
       </c>
       <c r="C110" t="n">
-        <v>12.05114650726318</v>
+        <v>8.771149635314941</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>6.9602</v>
       </c>
       <c r="C111" t="n">
-        <v>7.566106796264648</v>
+        <v>6.897299289703369</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>5.2497</v>
       </c>
       <c r="C112" t="n">
-        <v>4.041278839111328</v>
+        <v>4.585613250732422</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>3.9667</v>
       </c>
       <c r="C113" t="n">
-        <v>2.004626512527466</v>
+        <v>3.913831233978271</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>2.9914</v>
       </c>
       <c r="C114" t="n">
-        <v>1.000105738639832</v>
+        <v>2.331074476242065</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>2.3081</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9086757302284241</v>
+        <v>2.046359539031982</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>10.6699</v>
       </c>
       <c r="C116" t="n">
-        <v>14.43814563751221</v>
+        <v>10.22069549560547</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>6.0932</v>
       </c>
       <c r="C117" t="n">
-        <v>5.548118114471436</v>
+        <v>5.595494747161865</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>3.5139</v>
       </c>
       <c r="C118" t="n">
-        <v>1.305028796195984</v>
+        <v>3.30890941619873</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>2.0809</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9086757302284241</v>
+        <v>1.76872730255127</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>1.2379</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.8549439907073975</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0.7518</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.01552057266235352</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0.446</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.003571152687073</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0.2707</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.166556000709534</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0.1679</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.386085867881775</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0.1031</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.562664151191711</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.646524310112</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0.0389</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.602813601493835</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0.0216</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9086759090423584</v>
+        <v>-1.47519838809967</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0.0142</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9086759090423584</v>
+        <v>-1.372482419013977</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0.008800000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.442340016365051</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>0.0047</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.674733996391296</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>21.0769</v>
       </c>
       <c r="C132" t="n">
-        <v>23.92116165161133</v>
+        <v>20.50133323669434</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>14.9821</v>
       </c>
       <c r="C133" t="n">
-        <v>18.7003173828125</v>
+        <v>15.65385818481445</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>10.8014</v>
       </c>
       <c r="C134" t="n">
-        <v>13.92632293701172</v>
+        <v>11.07194042205811</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>7.9493</v>
       </c>
       <c r="C135" t="n">
-        <v>9.285682678222656</v>
+        <v>7.303209781646729</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>5.9289</v>
       </c>
       <c r="C136" t="n">
-        <v>5.215668201446533</v>
+        <v>5.206207752227783</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>4.3899</v>
       </c>
       <c r="C137" t="n">
-        <v>2.696134567260742</v>
+        <v>3.026154518127441</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>3.3012</v>
       </c>
       <c r="C138" t="n">
-        <v>1.214051127433777</v>
+        <v>1.609519362449646</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>2.4876</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9086757302284241</v>
+        <v>1.396390438079834</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>1.8333</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.8788182139396667</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>1.406</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.5281636118888855</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>6.843</v>
       </c>
       <c r="C142" t="n">
-        <v>7.102237224578857</v>
+        <v>6.636828422546387</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>3.8193</v>
       </c>
       <c r="C143" t="n">
-        <v>1.829437375068665</v>
+        <v>2.432014465332031</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>2.1613</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9086757302284241</v>
+        <v>1.064635515213013</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>1.2549</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.335863471031189</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>0.75</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.0681145191192627</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>0.4431</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.6610065698623657</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0.2645</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.123848080635071</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0.1555</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.239471077919006</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0.0892</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.236184239387512</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0.0558</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.325506329536438</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0.0331</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.375056624412537</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>0.0201</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.443630337715149</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>0.0123</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.47162401676178</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>0.007</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.509765028953552</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>0.0046</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.61189591884613</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>13.6487</v>
       </c>
       <c r="C157" t="n">
-        <v>18.02257919311523</v>
+        <v>12.25565719604492</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>9.570399999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>13.2485933303833</v>
+        <v>8.950064659118652</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>6.8169</v>
       </c>
       <c r="C159" t="n">
-        <v>8.664186477661133</v>
+        <v>6.20966100692749</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>4.9407</v>
       </c>
       <c r="C160" t="n">
-        <v>4.791213989257812</v>
+        <v>4.093937397003174</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>3.6304</v>
       </c>
       <c r="C161" t="n">
-        <v>2.444160461425781</v>
+        <v>2.659241676330566</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>2.6536</v>
       </c>
       <c r="C162" t="n">
-        <v>1.101202845573425</v>
+        <v>1.801313877105713</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>1.9719</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.6892730593681335</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>1.4582</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.6923979520797729</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>1.1105</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.1685973405838013</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.8260999999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.2852716445922852</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>4.1774</v>
       </c>
       <c r="C167" t="n">
-        <v>3.377989053726196</v>
+        <v>3.427341461181641</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>2.2893</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9483882188796997</v>
+        <v>1.20820426940918</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>1.2972</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.4026358723640442</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>0.7386</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.5289918184280396</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>0.4284</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.7633419036865234</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>0.2495</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.8614586591720581</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>0.1455</v>
       </c>
       <c r="C173" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.157919049263</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>0.0856</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.375271677970886</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>0.0496</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.40971314907074</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>0.0281</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.393306612968445</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>0.0185</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.42617666721344</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>0.0107</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.459026217460632</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>0.0055</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.541672348976135</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>0.0031</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.620564818382263</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>0.0019</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.723025679588318</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>7.1957</v>
       </c>
       <c r="C182" t="n">
-        <v>14.18618202209473</v>
+        <v>5.491970539093018</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>5.0949</v>
       </c>
       <c r="C183" t="n">
-        <v>9.523978233337402</v>
+        <v>3.279698371887207</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>3.7089</v>
       </c>
       <c r="C184" t="n">
-        <v>5.378410339355469</v>
+        <v>2.109030723571777</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>2.7095</v>
       </c>
       <c r="C185" t="n">
-        <v>2.796931743621826</v>
+        <v>1.353692889213562</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>2.0084</v>
       </c>
       <c r="C186" t="n">
-        <v>1.260241270065308</v>
+        <v>0.8527177572250366</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>1.4928</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.4002524018287659</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>1.0856</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.09743452072143555</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.8038</v>
       </c>
       <c r="C189" t="n">
-        <v>0.9086757302284241</v>
+        <v>0.1760786771774292</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>0.6045</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.3463701009750366</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>0.4282</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.8000000715255737</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>2.2688</v>
       </c>
       <c r="C192" t="n">
-        <v>1.912140965461731</v>
+        <v>1.042397260665894</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>1.2584</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9086759090423584</v>
+        <v>0.1502859592437744</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>0.7049</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.128299355506897</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>0.394</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.210160374641418</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>0.2256</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.190055727958679</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>0.1363</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.9740141630172729</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>0.0745</v>
       </c>
       <c r="C198" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.213393807411194</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>0.0391</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.546441674232483</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>0.0237</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.523138880729675</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>0.0135</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.477600932121277</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>0.0091</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.485904812812805</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>0.004</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.506385922431946</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>0.0023</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.657276511192322</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>0.0016</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.751443266868591</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>3.5882</v>
       </c>
       <c r="C206" t="n">
-        <v>11.76318740844727</v>
+        <v>2.268543720245361</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>2.581</v>
       </c>
       <c r="C207" t="n">
-        <v>7.30203914642334</v>
+        <v>1.12928032875061</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>1.876</v>
       </c>
       <c r="C208" t="n">
-        <v>3.860934019088745</v>
+        <v>0.132813572883606</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>1.3707</v>
       </c>
       <c r="C209" t="n">
-        <v>1.899053692817688</v>
+        <v>-0.1289863586425781</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>0.9922</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9852913618087769</v>
+        <v>-0.2223777770996094</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>0.7265</v>
       </c>
       <c r="C211" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.4120360612869263</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>0.5536</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.9382468461990356</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>0.3943</v>
       </c>
       <c r="C213" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.294672131538391</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>0.2963</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.174439549446106</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>0.2103</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.168370366096497</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>1.1267</v>
       </c>
       <c r="C216" t="n">
-        <v>1.253843307495117</v>
+        <v>-0.2111468315124512</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>0.6238</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9086757302284241</v>
+        <v>-0.6617966890335083</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>0.3328</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.349582076072693</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>0.1878</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.644718766212463</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>0.1043</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.511429667472839</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>0.0591</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.112743735313416</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>0.0315</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.277677655220032</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>0.0169</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9086757302284241</v>
+        <v>-1.557397961616516</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>0.0094</v>
       </c>
       <c r="C224" t="n">
-        <v>0.9086759090423584</v>
+        <v>-1.601301074028015</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>0.0045</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9086759090423584</v>
+        <v>-1.54428231716156</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>0.0028</v>
       </c>
       <c r="C226" t="n">
-        <v>0.9086757898330688</v>
+        <v>-1.50487744808197</v>
       </c>
     </row>
   </sheetData>
